--- a/59. Art_Posters.xlsx
+++ b/59. Art_Posters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C522D086-DC3C-467F-96C2-0FC5608D914E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CC8AF8-3028-430F-B46E-4B19AFEADF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{932E2622-66DC-4632-BC25-65B2E1A193C0}"/>
   </bookViews>
